--- a/data/hotels_by_city/Dallas/Dallas_shard_566.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_566.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,131 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7734140-r450848462-Motel_6_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>7734140</t>
+  </si>
+  <si>
+    <t>450848462</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>Close to freeway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was my husband and I second time being at this hotel the first time they told us it was going to be $50 deposit for a smoking room which we don't smoke so we wanted not smoking.  The second time we stayed the same girl changed it up and said that staying in a non-smoking room was going to be a $50 deposit that was the first problem that day then the second problem was our key card did not work when we were trying to leave and we had to go to the front desk to get a key card.  </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7734140-r349544500-Motel_6_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>349544500</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Good budget stay</t>
+  </si>
+  <si>
+    <t>I stayed here for 14 days. The rooms were clean and spacious. The rooms located on ground floor are non-smoking room. There is a store nearby (50 meters) from where you can get some breakfast. There was a small refrigerator and a microwave oven in my room. If one has some work nearby, one can surely consider staying here with family for a short duration. Downtown is 1 hr travel by public transport (10min DART Bus + 40 mins DART Train). The best part is that there is a bus stop about 100 mtrs away from this hotel. You can get DART bus in every half an hour which takes you to DART railway station (Ledbetter). The place is not considered very safe if you are alone after 8pm outside.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for 14 days. The rooms were clean and spacious. The rooms located on ground floor are non-smoking room. There is a store nearby (50 meters) from where you can get some breakfast. There was a small refrigerator and a microwave oven in my room. If one has some work nearby, one can surely consider staying here with family for a short duration. Downtown is 1 hr travel by public transport (10min DART Bus + 40 mins DART Train). The best part is that there is a bus stop about 100 mtrs away from this hotel. You can get DART bus in every half an hour which takes you to DART railway station (Ledbetter). The place is not considered very safe if you are alone after 8pm outside.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7734140-r348174857-Motel_6_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>348174857</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Clean and new located on I-35 south east</t>
+  </si>
+  <si>
+    <t>The motel 6 I stayed at was just south of downtown Dallas on I-35 south located on the east side of I-35. It is not in the best area but it is new, clean and has security. It was quiet when I was there. This would be the only motel chain I could locate in the area other than the seedy mom and pop motels which have no standards. I was safe and had no issues BUT, I would not venture out after 10 pm and definitely don't walk to any place from there. It is clean and affordable. I would stay here again. Not a family area so be cautious.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>The motel 6 I stayed at was just south of downtown Dallas on I-35 south located on the east side of I-35. It is not in the best area but it is new, clean and has security. It was quiet when I was there. This would be the only motel chain I could locate in the area other than the seedy mom and pop motels which have no standards. I was safe and had no issues BUT, I would not venture out after 10 pm and definitely don't walk to any place from there. It is clean and affordable. I would stay here again. Not a family area so be cautious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7734140-r279087192-Motel_6_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>279087192</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>Worst hotel experience ever.</t>
+  </si>
+  <si>
+    <t>I stay in hotels approx 80-100 nights per year and have never taken the time to negatively review any hotel/motel so please know that for me to take the time to do this, should be the very first indicator as to just HOW AWFUL this stay was.  I requested in my reservation nothing more that "PLEASE PLACE ME IN A QUIET ROOM," as I have a young child who struggle with sleep.  There was loud yelling in the hallway by at least 5-10 guests from 10pm until 2 am when I finally phoned the front desk. When I tried to look through the peep hole to see what was going on and assess if it was a serious situation, I realized there was no glass on either side of the hole, as it as stuffed with a bar of soap to prevent outsiders from looking in. The safety latch lock on the door was completely gone as well.  After phoning the front desk, he told me the police officer on duty (not security, Dallas P.D.) would be up to take care of it.  If that tells you the type of motel 6 this is.....the kind where the police are on duty?  
+Now the smaller issues I had, hair in our bedsheets, on our pillows, FILTHY floors that had all sorts of debris and small matter on them, a pool that showed no signs of being open for years (but was...I stay in hotels approx 80-100 nights per year and have never taken the time to negatively review any hotel/motel so please know that for me to take the time to do this, should be the very first indicator as to just HOW AWFUL this stay was.  I requested in my reservation nothing more that "PLEASE PLACE ME IN A QUIET ROOM," as I have a young child who struggle with sleep.  There was loud yelling in the hallway by at least 5-10 guests from 10pm until 2 am when I finally phoned the front desk. When I tried to look through the peep hole to see what was going on and assess if it was a serious situation, I realized there was no glass on either side of the hole, as it as stuffed with a bar of soap to prevent outsiders from looking in. The safety latch lock on the door was completely gone as well.  After phoning the front desk, he told me the police officer on duty (not security, Dallas P.D.) would be up to take care of it.  If that tells you the type of motel 6 this is.....the kind where the police are on duty?  Now the smaller issues I had, hair in our bedsheets, on our pillows, FILTHY floors that had all sorts of debris and small matter on them, a pool that showed no signs of being open for years (but was happily advertised with), and when I checked in, the manager told me to park in a specific spot so we would be in a well lit area. After dinner, I came back to that spot (it was dark, around 9 pm) and was greeted by a "security" officer who was most definitely high as he reeked of marijuana, knocking on my window and telling me I couldn't park there, it was for "the manager." The spot has no signage, nothing painted, absolutely NOTHING to indicate that it was for management.All in all, after requesting a quiet room, I slept 1 hour and 45 minutes and have lost ALL CONFIDENCE in the motel 6 brand.  I will NOT stay at one or allow my immediate family to ever again.  This place was not only dirty it was downright unsafe to stay.  PAY THE EXTRA MONEY and go elsewhere....not worth the risk.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - South, responded to this reviewResponded June 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2015</t>
+  </si>
+  <si>
+    <t>I stay in hotels approx 80-100 nights per year and have never taken the time to negatively review any hotel/motel so please know that for me to take the time to do this, should be the very first indicator as to just HOW AWFUL this stay was.  I requested in my reservation nothing more that "PLEASE PLACE ME IN A QUIET ROOM," as I have a young child who struggle with sleep.  There was loud yelling in the hallway by at least 5-10 guests from 10pm until 2 am when I finally phoned the front desk. When I tried to look through the peep hole to see what was going on and assess if it was a serious situation, I realized there was no glass on either side of the hole, as it as stuffed with a bar of soap to prevent outsiders from looking in. The safety latch lock on the door was completely gone as well.  After phoning the front desk, he told me the police officer on duty (not security, Dallas P.D.) would be up to take care of it.  If that tells you the type of motel 6 this is.....the kind where the police are on duty?  
+Now the smaller issues I had, hair in our bedsheets, on our pillows, FILTHY floors that had all sorts of debris and small matter on them, a pool that showed no signs of being open for years (but was...I stay in hotels approx 80-100 nights per year and have never taken the time to negatively review any hotel/motel so please know that for me to take the time to do this, should be the very first indicator as to just HOW AWFUL this stay was.  I requested in my reservation nothing more that "PLEASE PLACE ME IN A QUIET ROOM," as I have a young child who struggle with sleep.  There was loud yelling in the hallway by at least 5-10 guests from 10pm until 2 am when I finally phoned the front desk. When I tried to look through the peep hole to see what was going on and assess if it was a serious situation, I realized there was no glass on either side of the hole, as it as stuffed with a bar of soap to prevent outsiders from looking in. The safety latch lock on the door was completely gone as well.  After phoning the front desk, he told me the police officer on duty (not security, Dallas P.D.) would be up to take care of it.  If that tells you the type of motel 6 this is.....the kind where the police are on duty?  Now the smaller issues I had, hair in our bedsheets, on our pillows, FILTHY floors that had all sorts of debris and small matter on them, a pool that showed no signs of being open for years (but was happily advertised with), and when I checked in, the manager told me to park in a specific spot so we would be in a well lit area. After dinner, I came back to that spot (it was dark, around 9 pm) and was greeted by a "security" officer who was most definitely high as he reeked of marijuana, knocking on my window and telling me I couldn't park there, it was for "the manager." The spot has no signage, nothing painted, absolutely NOTHING to indicate that it was for management.All in all, after requesting a quiet room, I slept 1 hour and 45 minutes and have lost ALL CONFIDENCE in the motel 6 brand.  I will NOT stay at one or allow my immediate family to ever again.  This place was not only dirty it was downright unsafe to stay.  PAY THE EXTRA MONEY and go elsewhere....not worth the risk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7734140-r273184453-Motel_6_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>273184453</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Motel 6 DFW South</t>
+  </si>
+  <si>
+    <t>Motel 6 DFW South is a good clean inexpensive hotel for the budget travels. They have wooden flooring &amp; great location to get around to all the spots you want to visit &amp; also close to the DFW Amtrak Train Station.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
   </si>
 </sst>
 </file>
@@ -648,6 +773,311 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6558</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6558</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6558</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6558</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6558</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_566.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_566.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Lisaandpj H</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>0_Sajal_0</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7734140-r349544500-Motel_6_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>I stayed here for 14 days. The rooms were clean and spacious. The rooms located on ground floor are non-smoking room. There is a store nearby (50 meters) from where you can get some breakfast. There was a small refrigerator and a microwave oven in my room. If one has some work nearby, one can surely consider staying here with family for a short duration. Downtown is 1 hr travel by public transport (10min DART Bus + 40 mins DART Train). The best part is that there is a bus stop about 100 mtrs away from this hotel. You can get DART bus in every half an hour which takes you to DART railway station (Ledbetter). The place is not considered very safe if you are alone after 8pm outside.More</t>
   </si>
   <si>
+    <t>I600XTjamesr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7734140-r348174857-Motel_6_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -223,6 +232,9 @@
   </si>
   <si>
     <t>The motel 6 I stayed at was just south of downtown Dallas on I-35 south located on the east side of I-35. It is not in the best area but it is new, clean and has security. It was quiet when I was there. This would be the only motel chain I could locate in the area other than the seedy mom and pop motels which have no standards. I was safe and had no issues BUT, I would not venture out after 10 pm and definitely don't walk to any place from there. It is clean and affordable. I would stay here again. Not a family area so be cautious.More</t>
+  </si>
+  <si>
+    <t>Ally F</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7734140-r279087192-Motel_6_Dallas_South-Dallas_Texas.html</t>
@@ -255,6 +267,9 @@
   <si>
     <t>I stay in hotels approx 80-100 nights per year and have never taken the time to negatively review any hotel/motel so please know that for me to take the time to do this, should be the very first indicator as to just HOW AWFUL this stay was.  I requested in my reservation nothing more that "PLEASE PLACE ME IN A QUIET ROOM," as I have a young child who struggle with sleep.  There was loud yelling in the hallway by at least 5-10 guests from 10pm until 2 am when I finally phoned the front desk. When I tried to look through the peep hole to see what was going on and assess if it was a serious situation, I realized there was no glass on either side of the hole, as it as stuffed with a bar of soap to prevent outsiders from looking in. The safety latch lock on the door was completely gone as well.  After phoning the front desk, he told me the police officer on duty (not security, Dallas P.D.) would be up to take care of it.  If that tells you the type of motel 6 this is.....the kind where the police are on duty?  
 Now the smaller issues I had, hair in our bedsheets, on our pillows, FILTHY floors that had all sorts of debris and small matter on them, a pool that showed no signs of being open for years (but was...I stay in hotels approx 80-100 nights per year and have never taken the time to negatively review any hotel/motel so please know that for me to take the time to do this, should be the very first indicator as to just HOW AWFUL this stay was.  I requested in my reservation nothing more that "PLEASE PLACE ME IN A QUIET ROOM," as I have a young child who struggle with sleep.  There was loud yelling in the hallway by at least 5-10 guests from 10pm until 2 am when I finally phoned the front desk. When I tried to look through the peep hole to see what was going on and assess if it was a serious situation, I realized there was no glass on either side of the hole, as it as stuffed with a bar of soap to prevent outsiders from looking in. The safety latch lock on the door was completely gone as well.  After phoning the front desk, he told me the police officer on duty (not security, Dallas P.D.) would be up to take care of it.  If that tells you the type of motel 6 this is.....the kind where the police are on duty?  Now the smaller issues I had, hair in our bedsheets, on our pillows, FILTHY floors that had all sorts of debris and small matter on them, a pool that showed no signs of being open for years (but was happily advertised with), and when I checked in, the manager told me to park in a specific spot so we would be in a well lit area. After dinner, I came back to that spot (it was dark, around 9 pm) and was greeted by a "security" officer who was most definitely high as he reeked of marijuana, knocking on my window and telling me I couldn't park there, it was for "the manager." The spot has no signage, nothing painted, absolutely NOTHING to indicate that it was for management.All in all, after requesting a quiet room, I slept 1 hour and 45 minutes and have lost ALL CONFIDENCE in the motel 6 brand.  I will NOT stay at one or allow my immediate family to ever again.  This place was not only dirty it was downright unsafe to stay.  PAY THE EXTRA MONEY and go elsewhere....not worth the risk.More</t>
+  </si>
+  <si>
+    <t>Lighthousetravelok</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7734140-r273184453-Motel_6_Dallas_South-Dallas_Texas.html</t>
@@ -777,43 +792,47 @@
       <c r="A2" t="n">
         <v>6558</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169352</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -827,50 +846,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6558</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169353</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -890,50 +913,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6558</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169354</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -947,50 +974,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6558</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169355</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1008,56 +1039,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6558</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169356</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1075,7 +1110,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_566.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_566.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Lisaandpj H</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7734140-r559402711-Motel_6_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>7734140</t>
+  </si>
+  <si>
+    <t>559402711</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>Quick Convenient Cheap</t>
+  </si>
+  <si>
+    <t>No problems at all, save for a little traffic noise. Clean comfortable and relatively modern, was all we needed for our one nighter. Location made for a quick route to the interstate for our onward journey to Austin</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7734140-r482696492-Motel_6_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>482696492</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>convenient, but don't expect the Marriott</t>
+  </si>
+  <si>
+    <t>It is what it is, a safe place to stay for a night or two or longer if budget really matters.It's clean but dated inside, the rooms are ok, the sheets are clean and fresh, the bathroom was very clean and the aircon worked.  It was quiet too.  And its very convenient for the centre of Dallas, an easy drive of maybe twenty minutes on a late Sunday afternoon to Market &amp; Main St.  And the wifi works well.Ihop, burgerking and others are a five minute walk, but scross a few busy roads to get there.  And its a minute from i35.The reception folk were helpful and friendly.It's a bit tired, they have those awful plastic sheet protectors on the beds, but st $49 we shoukdn't expect the Ritz.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>It is what it is, a safe place to stay for a night or two or longer if budget really matters.It's clean but dated inside, the rooms are ok, the sheets are clean and fresh, the bathroom was very clean and the aircon worked.  It was quiet too.  And its very convenient for the centre of Dallas, an easy drive of maybe twenty minutes on a late Sunday afternoon to Market &amp; Main St.  And the wifi works well.Ihop, burgerking and others are a five minute walk, but scross a few busy roads to get there.  And its a minute from i35.The reception folk were helpful and friendly.It's a bit tired, they have those awful plastic sheet protectors on the beds, but st $49 we shoukdn't expect the Ritz.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7734140-r450848462-Motel_6_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>7734140</t>
-  </si>
-  <si>
     <t>450848462</t>
   </si>
   <si>
@@ -183,9 +225,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>0_Sajal_0</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7734140-r349544500-Motel_6_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -207,9 +246,6 @@
     <t>I stayed here for 14 days. The rooms were clean and spacious. The rooms located on ground floor are non-smoking room. There is a store nearby (50 meters) from where you can get some breakfast. There was a small refrigerator and a microwave oven in my room. If one has some work nearby, one can surely consider staying here with family for a short duration. Downtown is 1 hr travel by public transport (10min DART Bus + 40 mins DART Train). The best part is that there is a bus stop about 100 mtrs away from this hotel. You can get DART bus in every half an hour which takes you to DART railway station (Ledbetter). The place is not considered very safe if you are alone after 8pm outside.More</t>
   </si>
   <si>
-    <t>I600XTjamesr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7734140-r348174857-Motel_6_Dallas_South-Dallas_Texas.html</t>
   </si>
   <si>
@@ -228,13 +264,49 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>The motel 6 I stayed at was just south of downtown Dallas on I-35 south located on the east side of I-35. It is not in the best area but it is new, clean and has security. It was quiet when I was there. This would be the only motel chain I could locate in the area other than the seedy mom and pop motels which have no standards. I was safe and had no issues BUT, I would not venture out after 10 pm and definitely don't walk to any place from there. It is clean and affordable. I would stay here again. Not a family area so be cautious.More</t>
   </si>
   <si>
-    <t>Ally F</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7734140-r334087567-Motel_6_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>334087567</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Avoid this place! ABSOLUTELY HORRIFIC TREATMENT!</t>
+  </si>
+  <si>
+    <t>I stayed a few nights at this motel because it was close to my job and offered the most for the lowest amount of money in the area. I decided to make the office staff aware of a few issues on one of my stays that evidently they were not pleased with. The first problem was that my door key would never work. I found myself locked out the hotel on several occasions and the office staff blamed the machine, cell phones, the weather, everything. However a member finally told me that no matter how many days you pay for, they will only code the key for one day. I found this odd. I have stayed in many hotels and motels and if you pay for two days they will code your key for two days. I could not understand why no one brought this to my attention. There were days when I found myself stranded when I had to use the restroom and was holding my bags. Some days were very cold and rainy yet I would make it to the door and could not come in. The housekeeper would have to let me in on some days. The staff never found anything wrong with the fact that repeatedly I was being locked out. Weird. Second, I noticed that the motel places black folks on the top floors that are dirty and have roaches. Some of the rooms were...I stayed a few nights at this motel because it was close to my job and offered the most for the lowest amount of money in the area. I decided to make the office staff aware of a few issues on one of my stays that evidently they were not pleased with. The first problem was that my door key would never work. I found myself locked out the hotel on several occasions and the office staff blamed the machine, cell phones, the weather, everything. However a member finally told me that no matter how many days you pay for, they will only code the key for one day. I found this odd. I have stayed in many hotels and motels and if you pay for two days they will code your key for two days. I could not understand why no one brought this to my attention. There were days when I found myself stranded when I had to use the restroom and was holding my bags. Some days were very cold and rainy yet I would make it to the door and could not come in. The housekeeper would have to let me in on some days. The staff never found anything wrong with the fact that repeatedly I was being locked out. Weird. Second, I noticed that the motel places black folks on the top floors that are dirty and have roaches. Some of the rooms were not even fully furnished. The staff LIES. Also the top floor reeked of marijuana.  The bottom floors were much nicer but staff doesn't want blacks on the bottom floor. I noticed this trend after staying at the motel six on several occasions. The final straw was when I complained to the motel 6 staff member that my bed was not clean. When I pulled the bedspread back there were stains on the white sheet. Body stains and blood stains. It's like housekeeping made the bed but did not change the sheets. Or changed the sheets with other dirty sheets. There was body hair all over the bed as well. This strands on the white sheets. I was totally grossed out by this and I called up to the office and asked if I could get someone to come and change the bed. It was very late and the girl at the front desk said she had no  keys to the sheet room and finally hours later when she brought the sheets they were far too small for the bed. They were sheets meant for what appeared to be a full size bed and I had a queen size bed. So I could not even make the bed and I spent the rest of the night lying on top of the mattress with my coat underneath me and a towel draped over me. I never filed a formal complaint. The last time I went to Motel 6 I walked in on a Monday night and the little heavyset Indian man behind the counter who had two kids with him looked up at me and immediately asked "Why are you here? You must want a room?" I thought this was an odd way to greet someone, especially someone who had never caused any problem and had always left on time and left my room in order and who had never filed any complaint. He was one of the men I expressed my displeasure with about being constantly locked out the  hotel on a prior stays. When I said "Yes, I'm here for a hotel room" he then said "Oh we are sold out". I found this very odd. For this relatively remote hotel to be sold out on a Monday night. I asked him was there something going on in Dallas to which he replied "Yeah. Dallas has festivals happening now". I left the hotel and while leaving I drove around the parking lot and it was the emptiest I had ever seen. I thought.. hmmm... how odd. While driving away I decided to call Motel 6 reservations and I asked the reservation clerk if that particular Motel 6 had any empty rooms. She replied "Yes. They have several empty rooms". I then said "Ma'am, can you double check by calling the Motel" and she said "YES". She called the Motel and was told by the very same heavy set indian guy that they had several rooms. So I knew the man had lied. At that point I filed a complaint with Motel 6 reservations and I called the Motel 6 back. I asked the man why did he lie? And he said "Oh you filed a complaint last time you were here". Technically I had not. I had only expressed my displeasure over being locked out. I never even brought up the fact that the top floors were DIRTY and smelled like WEED and I saw ROACHES. I only wanted to stay on the bottom floor from that point on that had been renovated and I figured for the price I was paying I would not stay on the top floors anymore. So the man LIED. He was UPSET I had expressed displeasure. I guess this hotel staff which is owner occupied (by the Indian family) feels that people who pay their hard earned money should not complain or even express dissatisfaction with a part of their stay. I was shocked he would deny me the right to stay. After I told him I had filed complaints with the Corporate Office, he COOKED THE BOOKS. He went and LIED like I had filed multiple complaints when in fact I had filed NONE.So the next day when I called to speak to the owner and to advise the owner about what he had done the owner checked the logs and found that this man had suddenly put in there I had filed multiple complaints. He did that to protect himself after I told him I had filed a complaint about his lie with guest relations. Then the owner screamed at me.. (I uploaded the video on Vimeo entitled -Motel 6 4610 S R. L. Thornton Dallas TX Roaches Racism Discrimination Black People- that shows our conversation. I had it recorded. The owner even denied there were roaches when I had taken pictures. She then slammed the phone down on me. I'm pleased that the corporate office made this situation right. No one should be treated that way and I'm pleased with how the Corporate office of Motel 6 located in Carrollton TX handled the situation. I was called and an apology was issued and they were courteous to place me at a much better hotel for the night. A studio six with a kitchen, etc. Way nicer and even closer to my job.  However I would avoid this place from now on. These don't seem to be good people and they don't treat black minorities well.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I stayed a few nights at this motel because it was close to my job and offered the most for the lowest amount of money in the area. I decided to make the office staff aware of a few issues on one of my stays that evidently they were not pleased with. The first problem was that my door key would never work. I found myself locked out the hotel on several occasions and the office staff blamed the machine, cell phones, the weather, everything. However a member finally told me that no matter how many days you pay for, they will only code the key for one day. I found this odd. I have stayed in many hotels and motels and if you pay for two days they will code your key for two days. I could not understand why no one brought this to my attention. There were days when I found myself stranded when I had to use the restroom and was holding my bags. Some days were very cold and rainy yet I would make it to the door and could not come in. The housekeeper would have to let me in on some days. The staff never found anything wrong with the fact that repeatedly I was being locked out. Weird. Second, I noticed that the motel places black folks on the top floors that are dirty and have roaches. Some of the rooms were...I stayed a few nights at this motel because it was close to my job and offered the most for the lowest amount of money in the area. I decided to make the office staff aware of a few issues on one of my stays that evidently they were not pleased with. The first problem was that my door key would never work. I found myself locked out the hotel on several occasions and the office staff blamed the machine, cell phones, the weather, everything. However a member finally told me that no matter how many days you pay for, they will only code the key for one day. I found this odd. I have stayed in many hotels and motels and if you pay for two days they will code your key for two days. I could not understand why no one brought this to my attention. There were days when I found myself stranded when I had to use the restroom and was holding my bags. Some days were very cold and rainy yet I would make it to the door and could not come in. The housekeeper would have to let me in on some days. The staff never found anything wrong with the fact that repeatedly I was being locked out. Weird. Second, I noticed that the motel places black folks on the top floors that are dirty and have roaches. Some of the rooms were not even fully furnished. The staff LIES. Also the top floor reeked of marijuana.  The bottom floors were much nicer but staff doesn't want blacks on the bottom floor. I noticed this trend after staying at the motel six on several occasions. The final straw was when I complained to the motel 6 staff member that my bed was not clean. When I pulled the bedspread back there were stains on the white sheet. Body stains and blood stains. It's like housekeeping made the bed but did not change the sheets. Or changed the sheets with other dirty sheets. There was body hair all over the bed as well. This strands on the white sheets. I was totally grossed out by this and I called up to the office and asked if I could get someone to come and change the bed. It was very late and the girl at the front desk said she had no  keys to the sheet room and finally hours later when she brought the sheets they were far too small for the bed. They were sheets meant for what appeared to be a full size bed and I had a queen size bed. So I could not even make the bed and I spent the rest of the night lying on top of the mattress with my coat underneath me and a towel draped over me. I never filed a formal complaint. The last time I went to Motel 6 I walked in on a Monday night and the little heavyset Indian man behind the counter who had two kids with him looked up at me and immediately asked "Why are you here? You must want a room?" I thought this was an odd way to greet someone, especially someone who had never caused any problem and had always left on time and left my room in order and who had never filed any complaint. He was one of the men I expressed my displeasure with about being constantly locked out the  hotel on a prior stays. When I said "Yes, I'm here for a hotel room" he then said "Oh we are sold out". I found this very odd. For this relatively remote hotel to be sold out on a Monday night. I asked him was there something going on in Dallas to which he replied "Yeah. Dallas has festivals happening now". I left the hotel and while leaving I drove around the parking lot and it was the emptiest I had ever seen. I thought.. hmmm... how odd. While driving away I decided to call Motel 6 reservations and I asked the reservation clerk if that particular Motel 6 had any empty rooms. She replied "Yes. They have several empty rooms". I then said "Ma'am, can you double check by calling the Motel" and she said "YES". She called the Motel and was told by the very same heavy set indian guy that they had several rooms. So I knew the man had lied. At that point I filed a complaint with Motel 6 reservations and I called the Motel 6 back. I asked the man why did he lie? And he said "Oh you filed a complaint last time you were here". Technically I had not. I had only expressed my displeasure over being locked out. I never even brought up the fact that the top floors were DIRTY and smelled like WEED and I saw ROACHES. I only wanted to stay on the bottom floor from that point on that had been renovated and I figured for the price I was paying I would not stay on the top floors anymore. So the man LIED. He was UPSET I had expressed displeasure. I guess this hotel staff which is owner occupied (by the Indian family) feels that people who pay their hard earned money should not complain or even express dissatisfaction with a part of their stay. I was shocked he would deny me the right to stay. After I told him I had filed complaints with the Corporate Office, he COOKED THE BOOKS. He went and LIED like I had filed multiple complaints when in fact I had filed NONE.So the next day when I called to speak to the owner and to advise the owner about what he had done the owner checked the logs and found that this man had suddenly put in there I had filed multiple complaints. He did that to protect himself after I told him I had filed a complaint about his lie with guest relations. Then the owner screamed at me.. (I uploaded the video on Vimeo entitled -Motel 6 4610 S R. L. Thornton Dallas TX Roaches Racism Discrimination Black People- that shows our conversation. I had it recorded. The owner even denied there were roaches when I had taken pictures. She then slammed the phone down on me. I'm pleased that the corporate office made this situation right. No one should be treated that way and I'm pleased with how the Corporate office of Motel 6 located in Carrollton TX handled the situation. I was called and an apology was issued and they were courteous to place me at a much better hotel for the night. A studio six with a kitchen, etc. Way nicer and even closer to my job.  However I would avoid this place from now on. These don't seem to be good people and they don't treat black minorities well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7734140-r316865827-Motel_6_Dallas_South-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>316865827</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Good Hotel but could be better</t>
+  </si>
+  <si>
+    <t>My wife and I did find this hotel nice. It was a very comfortable room and pretty nice to look at. The bathroom was very clean and the bed was amazing. Best sleep in a hotel ever. Now to the bad. I am a gamer and how the tv's are set up you have next to no access to the back to plug in an HDMI or anything. It took me over 30 mins to find a way to get my hand back behind it. Then the Internet was super slow and laggy. But I guess you can not expect a lot from a hotel that gives free wifi. Next if you are traveling and want to know about the area this hotel is located in. The area seems kind of safe. There are some sketchy parts in that area and it may be off-putting to some. But not to bad. Over all this is a ok hotel for people traveling. Next time I will try to find a better hotel. But if this is all you can get, it's not to bad. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>My wife and I did find this hotel nice. It was a very comfortable room and pretty nice to look at. The bathroom was very clean and the bed was amazing. Best sleep in a hotel ever. Now to the bad. I am a gamer and how the tv's are set up you have next to no access to the back to plug in an HDMI or anything. It took me over 30 mins to find a way to get my hand back behind it. Then the Internet was super slow and laggy. But I guess you can not expect a lot from a hotel that gives free wifi. Next if you are traveling and want to know about the area this hotel is located in. The area seems kind of safe. There are some sketchy parts in that area and it may be off-putting to some. But not to bad. Over all this is a ok hotel for people traveling. Next time I will try to find a better hotel. But if this is all you can get, it's not to bad. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7734140-r279087192-Motel_6_Dallas_South-Dallas_Texas.html</t>
@@ -256,9 +328,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team member at Motel 6 Dallas - South, responded to this reviewResponded June 25, 2015</t>
   </si>
   <si>
@@ -267,9 +336,6 @@
   <si>
     <t>I stay in hotels approx 80-100 nights per year and have never taken the time to negatively review any hotel/motel so please know that for me to take the time to do this, should be the very first indicator as to just HOW AWFUL this stay was.  I requested in my reservation nothing more that "PLEASE PLACE ME IN A QUIET ROOM," as I have a young child who struggle with sleep.  There was loud yelling in the hallway by at least 5-10 guests from 10pm until 2 am when I finally phoned the front desk. When I tried to look through the peep hole to see what was going on and assess if it was a serious situation, I realized there was no glass on either side of the hole, as it as stuffed with a bar of soap to prevent outsiders from looking in. The safety latch lock on the door was completely gone as well.  After phoning the front desk, he told me the police officer on duty (not security, Dallas P.D.) would be up to take care of it.  If that tells you the type of motel 6 this is.....the kind where the police are on duty?  
 Now the smaller issues I had, hair in our bedsheets, on our pillows, FILTHY floors that had all sorts of debris and small matter on them, a pool that showed no signs of being open for years (but was...I stay in hotels approx 80-100 nights per year and have never taken the time to negatively review any hotel/motel so please know that for me to take the time to do this, should be the very first indicator as to just HOW AWFUL this stay was.  I requested in my reservation nothing more that "PLEASE PLACE ME IN A QUIET ROOM," as I have a young child who struggle with sleep.  There was loud yelling in the hallway by at least 5-10 guests from 10pm until 2 am when I finally phoned the front desk. When I tried to look through the peep hole to see what was going on and assess if it was a serious situation, I realized there was no glass on either side of the hole, as it as stuffed with a bar of soap to prevent outsiders from looking in. The safety latch lock on the door was completely gone as well.  After phoning the front desk, he told me the police officer on duty (not security, Dallas P.D.) would be up to take care of it.  If that tells you the type of motel 6 this is.....the kind where the police are on duty?  Now the smaller issues I had, hair in our bedsheets, on our pillows, FILTHY floors that had all sorts of debris and small matter on them, a pool that showed no signs of being open for years (but was happily advertised with), and when I checked in, the manager told me to park in a specific spot so we would be in a well lit area. After dinner, I came back to that spot (it was dark, around 9 pm) and was greeted by a "security" officer who was most definitely high as he reeked of marijuana, knocking on my window and telling me I couldn't park there, it was for "the manager." The spot has no signage, nothing painted, absolutely NOTHING to indicate that it was for management.All in all, after requesting a quiet room, I slept 1 hour and 45 minutes and have lost ALL CONFIDENCE in the motel 6 brand.  I will NOT stay at one or allow my immediate family to ever again.  This place was not only dirty it was downright unsafe to stay.  PAY THE EXTRA MONEY and go elsewhere....not worth the risk.More</t>
-  </si>
-  <si>
-    <t>Lighthousetravelok</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d7734140-r273184453-Motel_6_Dallas_South-Dallas_Texas.html</t>
@@ -792,47 +858,43 @@
       <c r="A2" t="n">
         <v>6558</v>
       </c>
-      <c r="B2" t="n">
-        <v>169352</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -846,63 +908,57 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6558</v>
       </c>
-      <c r="B3" t="n">
-        <v>169353</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>3</v>
@@ -913,54 +969,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6558</v>
       </c>
-      <c r="B4" t="n">
-        <v>169354</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" t="s">
-        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -974,61 +1026,57 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6558</v>
       </c>
-      <c r="B5" t="n">
-        <v>169355</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
       <c r="O5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
@@ -1038,79 +1086,313 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>80</v>
-      </c>
-      <c r="X5" t="s">
-        <v>81</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6558</v>
       </c>
-      <c r="B6" t="n">
-        <v>169356</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6558</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6558</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6558</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6558</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
